--- a/com/src/main/java/com/test/data/RegistrationformData.xlsx
+++ b/com/src/main/java/com/test/data/RegistrationformData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="14895" windowHeight="1875" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13485" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="regdata" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="testdata" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L4"/>
+  <oleSize ref="A1:K13"/>
 </workbook>
 </file>
 
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
